--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>0.05377263258033333</v>
+        <v>0.04351985499766666</v>
       </c>
       <c r="R2">
-        <v>0.322635795482</v>
+        <v>0.261119129986</v>
       </c>
       <c r="S2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="T2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
         <v>0.004261955046555555</v>
@@ -641,10 +641,10 @@
         <v>0.038357595419</v>
       </c>
       <c r="S3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="T3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.01149792106955556</v>
+        <v>0.008102069261000001</v>
       </c>
       <c r="R4">
-        <v>0.103481289626</v>
+        <v>0.07291862334900001</v>
       </c>
       <c r="S4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="T4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>0.05052259095216666</v>
+        <v>0.04563827401466666</v>
       </c>
       <c r="R5">
-        <v>0.303135545713</v>
+        <v>0.273829644088</v>
       </c>
       <c r="S5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="T5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>0.03350255990033334</v>
+        <v>0.001135852304888889</v>
       </c>
       <c r="R6">
-        <v>0.301523039103</v>
+        <v>0.010222670744</v>
       </c>
       <c r="S6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="T6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>0.02792106166055556</v>
+        <v>0.009340143050333333</v>
       </c>
       <c r="R7">
-        <v>0.251289554945</v>
+        <v>0.084061287453</v>
       </c>
       <c r="S7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="T7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
     </row>
   </sheetData>
